--- a/Documentation/Charts.xlsx
+++ b/Documentation/Charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer science\Level 3 -  first term\Artificial intelligence\Project\Game\BreakingBlocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer science\Level 3 -  first term\Artificial intelligence\Project\Game\BreakingBlocks\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740C315-58F7-4FC7-84C2-07762BDC2544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5486346-134B-4540-B591-32188B748316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -296,25 +296,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21165</c:v>
+                  <c:v>18635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274716</c:v>
+                  <c:v>136957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3141</c:v>
+                  <c:v>648443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44170</c:v>
+                  <c:v>501328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11744</c:v>
+                  <c:v>107538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,16 +394,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,25 +474,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8267</c:v>
+                  <c:v>7279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107310</c:v>
+                  <c:v>53498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1226</c:v>
+                  <c:v>253298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17253</c:v>
+                  <c:v>195831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4587</c:v>
+                  <c:v>42030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,25 +563,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3900</c:v>
+                  <c:v>1943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47028</c:v>
+                  <c:v>15604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>25444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1793</c:v>
+                  <c:v>19817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2025</c:v>
+                  <c:v>12855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,7 +841,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.374993688496055E-2"/>
+          <c:y val="2.6248600645349437E-2"/>
+          <c:w val="0.88554735355317737"/>
+          <c:h val="0.71188402524953198"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -906,25 +916,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21165</c:v>
+                  <c:v>18635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>274716</c:v>
+                  <c:v>136957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3141</c:v>
+                  <c:v>648443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44170</c:v>
+                  <c:v>501328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11744</c:v>
+                  <c:v>107538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,6 +1117,931 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-EG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ورقة1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Path</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ورقة1!$B$16:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DLS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IDLS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ورقة1!$B$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF87-42C0-8E36-F0059B93118C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="555449176"/>
+        <c:axId val="555449536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555449176"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-EG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555449536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555449536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-EG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555449176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ar-EG"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-EG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ورقة1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Space</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ورقة1!$B$21:$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DLS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IDLS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ورقة1!$B$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>253298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD6F-464C-8E4D-0C7818C49B1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="381089168"/>
+        <c:axId val="381086288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="381089168"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-EG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381086288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381086288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-EG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381089168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ar-EG"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-EG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ورقة1!$B$25:$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DLS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IDLS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>UCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ورقة1!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B2C-4699-BC12-E50C63534FC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="555439816"/>
+        <c:axId val="555438376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555439816"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-EG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555438376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555438376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-EG"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555439816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ar-EG"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1187,6 +2122,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2161,6 +3216,1521 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2233,16 +4803,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>405246</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390958</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2262,6 +4832,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9205F793-BD96-CF6A-A49B-CD6C8057921F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1545C066-C5E1-CB7A-316F-CCEBCDFF8287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6251E635-6A6F-E5AE-25B3-81541A15C679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2533,15 +5211,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2567,33 +5245,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4">
-        <v>21165</v>
+        <v>18635</v>
       </c>
       <c r="D2" s="4">
-        <v>274716</v>
+        <v>136957</v>
       </c>
       <c r="E2" s="4">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F2" s="4">
-        <v>3141</v>
+        <v>648443</v>
       </c>
       <c r="G2" s="4">
-        <v>44170</v>
+        <v>501328</v>
       </c>
       <c r="H2" s="4">
-        <v>11744</v>
+        <v>107538</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2607,68 +5285,333 @@
         <v>5</v>
       </c>
       <c r="E3" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4">
         <v>6</v>
       </c>
       <c r="G3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
-        <v>8267</v>
+        <v>7279</v>
       </c>
       <c r="D4" s="4">
-        <v>107310</v>
+        <v>53498</v>
       </c>
       <c r="E4" s="4">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4">
-        <v>1226</v>
+        <v>253298</v>
       </c>
       <c r="G4" s="4">
-        <v>17253</v>
+        <v>195831</v>
       </c>
       <c r="H4" s="4">
-        <v>4587</v>
+        <v>42030</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1943</v>
+      </c>
+      <c r="D5" s="4">
+        <v>15604</v>
+      </c>
+      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>25444</v>
+      </c>
+      <c r="G5" s="4">
+        <v>19817</v>
+      </c>
+      <c r="H5" s="4">
+        <v>12855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
-        <v>3900</v>
-      </c>
-      <c r="D5" s="4">
-        <v>47028</v>
-      </c>
-      <c r="E5" s="4">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4">
-        <v>130</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1793</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2025</v>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18635</v>
+      </c>
+      <c r="D8" s="4">
+        <v>136957</v>
+      </c>
+      <c r="E8" s="4">
+        <v>217</v>
+      </c>
+      <c r="F8" s="4">
+        <v>648443</v>
+      </c>
+      <c r="G8" s="4">
+        <v>501328</v>
+      </c>
+      <c r="H8" s="4">
+        <v>107538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18635</v>
+      </c>
+      <c r="D12" s="4">
+        <v>136957</v>
+      </c>
+      <c r="E12" s="4">
+        <v>217</v>
+      </c>
+      <c r="F12" s="4">
+        <v>648443</v>
+      </c>
+      <c r="G12" s="4">
+        <v>501328</v>
+      </c>
+      <c r="H12" s="4">
+        <v>107538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7279</v>
+      </c>
+      <c r="D22" s="4">
+        <v>53498</v>
+      </c>
+      <c r="E22" s="4">
+        <v>84</v>
+      </c>
+      <c r="F22" s="4">
+        <v>253298</v>
+      </c>
+      <c r="G22" s="4">
+        <v>195831</v>
+      </c>
+      <c r="H22" s="4">
+        <v>42030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1943</v>
+      </c>
+      <c r="D26" s="4">
+        <v>15604</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>25444</v>
+      </c>
+      <c r="G26" s="4">
+        <v>19817</v>
+      </c>
+      <c r="H26" s="4">
+        <v>12855</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Charts.xlsx
+++ b/Documentation/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer science\Level 3 -  first term\Artificial intelligence\Project\Game\BreakingBlocks\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5486346-134B-4540-B591-32188B748316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420E8D9-EC9B-4DBF-8310-B9CA9FA27D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -5213,13 +5213,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF53" sqref="AF53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>107538</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>42030</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -5349,8 +5349,8 @@
         <v>12855</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -5402,8 +5402,8 @@
         <v>107538</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5455,8 +5455,8 @@
         <v>107538</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -5508,8 +5508,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -5561,8 +5561,8 @@
         <v>42030</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
